--- a/ExplorerFund/operation/strategy_update/shfe/day/shfe_day_config.xlsx
+++ b/ExplorerFund/operation/strategy_update/shfe/day/shfe_day_config.xlsx
@@ -764,7 +764,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -850,7 +850,7 @@
         <v>71</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>37</v>
@@ -1051,7 +1051,7 @@
         <v>71</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>47</v>
@@ -1128,7 +1128,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>13</v>
@@ -1278,7 +1278,7 @@
         <v>71</v>
       </c>
       <c r="F20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>13</v>
@@ -1355,7 +1355,7 @@
         <v>71</v>
       </c>
       <c r="F23" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>13</v>
@@ -1382,7 +1382,7 @@
         <v>71</v>
       </c>
       <c r="F24" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>13</v>
@@ -1646,7 +1646,7 @@
         <v>71</v>
       </c>
       <c r="F34" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>13</v>

--- a/ExplorerFund/operation/strategy_update/shfe/day/shfe_day_config.xlsx
+++ b/ExplorerFund/operation/strategy_update/shfe/day/shfe_day_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
   <si>
     <t>策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,19 +311,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>停用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用</t>
+    <t>不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fl34_ru_day.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru1705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新手数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,11 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -808,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -847,7 +858,7 @@
         <v>64</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
@@ -856,11 +867,9 @@
         <v>37</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -874,7 +883,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -884,7 +893,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -909,7 +918,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -934,7 +943,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
@@ -1057,11 +1066,9 @@
         <v>47</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1132,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F14" s="5">
         <v>5</v>
@@ -1134,9 +1141,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
@@ -1275,7 +1280,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F20" s="5">
         <v>2</v>
@@ -1284,9 +1289,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
@@ -1352,7 +1355,7 @@
         <v>49</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F23" s="5">
         <v>5</v>
@@ -1361,9 +1364,7 @@
         <v>13</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1">
       <c r="A24" s="8" t="s">
@@ -1379,7 +1380,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F24" s="5">
         <v>5</v>
@@ -1388,11 +1389,9 @@
         <v>13</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" hidden="1">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
@@ -1417,7 +1416,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="26" spans="1:9" s="2" customFormat="1">
       <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
@@ -1442,7 +1441,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="27" spans="1:9" s="2" customFormat="1">
       <c r="A27" s="8" t="s">
         <v>50</v>
       </c>
@@ -1467,7 +1466,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="28" spans="1:9" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>55</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F28" s="5">
         <v>0</v>
@@ -1489,12 +1488,8 @@
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1">
       <c r="A29" s="8" t="s">
@@ -1521,7 +1516,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="30" spans="1:9" s="2" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
@@ -1535,7 +1530,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
@@ -1543,14 +1538,10 @@
       <c r="G30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" hidden="1">
+      <c r="H30" s="5"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1">
       <c r="A31" s="8" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +1566,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="32" spans="1:9" s="2" customFormat="1">
       <c r="A32" s="8" t="s">
         <v>21</v>
       </c>
@@ -1589,7 +1580,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
@@ -1597,14 +1588,10 @@
       <c r="G32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" hidden="1">
+      <c r="H32" s="5"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" s="2" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>50</v>
       </c>
@@ -1643,7 +1630,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F34" s="5">
         <v>5</v>
@@ -1652,11 +1639,9 @@
         <v>13</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" hidden="1">
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" s="2" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +1671,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="7">
         <v>87654355</v>
@@ -1706,13 +1691,38 @@
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
     </row>
+    <row r="37" spans="1:9" s="2" customFormat="1">
+      <c r="A37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="7">
+        <v>87654356</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="G1:G36">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="在用"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
